--- a/docs/dsa-project-design-checklist.xlsx
+++ b/docs/dsa-project-design-checklist.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B19EE66-D5CF-4FAE-A347-631F9204AA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t xml:space="preserve">SI. No. </t>
   </si>
@@ -176,12 +177,15 @@
   </si>
   <si>
     <t>Remove the not required part</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -296,14 +300,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -341,7 +348,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -413,7 +420,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -586,22 +593,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" customWidth="1"/>
-    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.453125" customWidth="1"/>
+    <col min="5" max="5" width="45.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -610,7 +617,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -627,7 +634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -637,10 +644,12 @@
       <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -650,10 +659,12 @@
       <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -663,17 +674,19 @@
       <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -682,7 +695,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -699,7 +712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>1</v>
       </c>
@@ -712,7 +725,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2</v>
       </c>
@@ -725,7 +738,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2</v>
       </c>
@@ -738,7 +751,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>3</v>
       </c>
@@ -751,7 +764,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>4</v>
       </c>
@@ -764,7 +777,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>5</v>
       </c>
@@ -777,7 +790,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>6</v>
       </c>
@@ -790,7 +803,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>7</v>
       </c>
@@ -803,7 +816,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
         <v>27</v>
       </c>
@@ -812,7 +825,7 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -829,7 +842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>1</v>
       </c>
@@ -842,7 +855,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2</v>
       </c>
@@ -855,7 +868,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>3</v>
       </c>
@@ -868,7 +881,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>4</v>
       </c>
@@ -881,7 +894,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>5</v>
       </c>
@@ -894,7 +907,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>6</v>
       </c>
@@ -907,7 +920,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>7</v>
       </c>
@@ -920,7 +933,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>8</v>
       </c>
@@ -933,7 +946,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>9</v>
       </c>
@@ -946,7 +959,7 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>10</v>
       </c>
@@ -959,7 +972,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>11</v>
       </c>
@@ -972,7 +985,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>12</v>
       </c>
@@ -985,28 +998,28 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>

--- a/docs/dsa-project-design-checklist.xlsx
+++ b/docs/dsa-project-design-checklist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B19EE66-D5CF-4FAE-A347-631F9204AA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A578A3F-3E57-4DDA-BE5B-F28A708F4534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t xml:space="preserve">SI. No. </t>
   </si>
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>As our project is regarding railways which is a big area to be covered, we will be dividing area into subgroups like for e.g. In passenger accommodation we will divide it to problems about seat, light, etc.</t>
+  </si>
+  <si>
+    <t>This is useful to keep the track of the events going on in railway stations, for instance like arrival and departure delays in trains.</t>
+  </si>
+  <si>
+    <t>This will be helpful in almost in all the sectors of railways for e.g., we can provide only required information to the passengers regarding train.</t>
   </si>
 </sst>
 </file>
@@ -262,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -289,6 +298,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,18 +609,18 @@
   <dimension ref="A2:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.453125" customWidth="1"/>
-    <col min="5" max="5" width="45.6328125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -617,7 +629,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -634,59 +646,65 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+    <row r="4" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
+      <c r="E4" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+      <c r="E5" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E6" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -695,7 +713,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -712,7 +730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>1</v>
       </c>
@@ -725,7 +743,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>2</v>
       </c>
@@ -738,7 +756,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>2</v>
       </c>
@@ -751,7 +769,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>3</v>
       </c>
@@ -764,7 +782,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>4</v>
       </c>
@@ -777,7 +795,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>5</v>
       </c>
@@ -790,7 +808,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>6</v>
       </c>
@@ -803,7 +821,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>7</v>
       </c>
@@ -816,7 +834,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>27</v>
       </c>
@@ -825,7 +843,7 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -842,7 +860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>1</v>
       </c>
@@ -855,7 +873,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>2</v>
       </c>
@@ -868,7 +886,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>3</v>
       </c>
@@ -881,7 +899,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>4</v>
       </c>
@@ -894,7 +912,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>5</v>
       </c>
@@ -907,7 +925,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>6</v>
       </c>
@@ -920,7 +938,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>7</v>
       </c>
@@ -933,7 +951,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>8</v>
       </c>
@@ -946,7 +964,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>9</v>
       </c>
@@ -959,7 +977,7 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>10</v>
       </c>
@@ -972,7 +990,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>11</v>
       </c>
@@ -985,7 +1003,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>12</v>
       </c>
@@ -998,28 +1016,28 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>

--- a/docs/dsa-project-design-checklist.xlsx
+++ b/docs/dsa-project-design-checklist.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A578A3F-3E57-4DDA-BE5B-F28A708F4534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B285CA-CBF9-4DB1-8745-9B3F89E31719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
   <si>
     <t xml:space="preserve">SI. No. </t>
   </si>
@@ -189,6 +190,15 @@
   </si>
   <si>
     <t>This will be helpful in almost in all the sectors of railways for e.g., we can provide only required information to the passengers regarding train.</t>
+  </si>
+  <si>
+    <t>Owner: Anirudh</t>
+  </si>
+  <si>
+    <t>Problem Statement:</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -271,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -296,11 +306,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,13 +637,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -647,53 +663,53 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>57</v>
       </c>
     </row>
@@ -705,13 +721,13 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -740,7 +756,9 @@
       <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -753,7 +771,9 @@
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -766,7 +786,9 @@
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -779,7 +801,9 @@
       <c r="C13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -792,7 +816,9 @@
       <c r="C14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -805,7 +831,9 @@
       <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -818,7 +846,9 @@
       <c r="C16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -831,17 +861,19 @@
       <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="E17" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -870,7 +902,9 @@
       <c r="C21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -883,7 +917,9 @@
       <c r="C22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -896,7 +932,9 @@
       <c r="C23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -909,7 +947,9 @@
       <c r="C24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -922,7 +962,9 @@
       <c r="C25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -935,7 +977,9 @@
       <c r="C26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -948,7 +992,9 @@
       <c r="C27" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -961,7 +1007,9 @@
       <c r="C28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -974,7 +1022,9 @@
       <c r="C29" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -987,7 +1037,9 @@
       <c r="C30" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1000,7 +1052,9 @@
       <c r="C31" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1013,7 +1067,9 @@
       <c r="C32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1053,4 +1109,49 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EF11AB-6EAC-461F-B215-CC2D27C21FC7}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/dsa-project-design-checklist.xlsx
+++ b/docs/dsa-project-design-checklist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B285CA-CBF9-4DB1-8745-9B3F89E31719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D4D672-CC93-4FE8-88AC-5F5D8CE55175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
   <si>
     <t xml:space="preserve">SI. No. </t>
   </si>
@@ -199,6 +199,21 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>The information shown to the user is updated only when necessary.</t>
+  </si>
+  <si>
+    <t>Not all the information in a given data set is relevant to our needs.</t>
+  </si>
+  <si>
+    <t>Whenever we wish to use a particular data set, all the information, even if it is relevant, might not be necessary at that time. So, only the necessary information is used from within the relevant data.</t>
+  </si>
+  <si>
+    <t>While calculating for a particular problem, some data might be of a higher priority than the others.</t>
+  </si>
+  <si>
+    <t>For things, like the recommendation engine, cautious travel is used to traverse the data.</t>
   </si>
 </sst>
 </file>
@@ -281,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -309,6 +324,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -316,7 +334,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,28 +642,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" customWidth="1"/>
-    <col min="5" max="5" width="50.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.453125" customWidth="1"/>
+    <col min="5" max="5" width="50.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -662,7 +680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -675,11 +693,11 @@
       <c r="D4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="69.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -692,11 +710,11 @@
       <c r="D5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="67.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -709,27 +727,27 @@
       <c r="D6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -746,7 +764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>1</v>
       </c>
@@ -756,12 +774,12 @@
       <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2</v>
       </c>
@@ -771,12 +789,12 @@
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2</v>
       </c>
@@ -786,12 +804,12 @@
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>3</v>
       </c>
@@ -801,12 +819,12 @@
       <c r="C13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>4</v>
       </c>
@@ -816,12 +834,12 @@
       <c r="C14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>5</v>
       </c>
@@ -831,12 +849,12 @@
       <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>6</v>
       </c>
@@ -846,12 +864,12 @@
       <c r="C16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>7</v>
       </c>
@@ -861,21 +879,21 @@
       <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -892,208 +910,218 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>1</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>3</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>4</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D24" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>5</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>6</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>7</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>8</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>9</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>10</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>11</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D31" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>12</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1119,33 +1147,33 @@
       <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/dsa-project-design-checklist.xlsx
+++ b/docs/dsa-project-design-checklist.xlsx
@@ -3,20 +3,56 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B285CA-CBF9-4DB1-8745-9B3F89E31719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247CFF65-FA7D-4B85-9D6A-89C976EE3FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t xml:space="preserve">SI. No. </t>
   </si>
@@ -192,13 +228,106 @@
     <t>This will be helpful in almost in all the sectors of railways for e.g., we can provide only required information to the passengers regarding train.</t>
   </si>
   <si>
-    <t>Owner: Anirudh</t>
-  </si>
-  <si>
-    <t>Problem Statement:</t>
-  </si>
-  <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Problem Statement: Infrastructure and Facilities</t>
+  </si>
+  <si>
+    <t>S.Num</t>
+  </si>
+  <si>
+    <t>Fuctionality</t>
+  </si>
+  <si>
+    <t>Efficient Announcement Speaker</t>
+  </si>
+  <si>
+    <t>Communications Between stations</t>
+  </si>
+  <si>
+    <t>Information Organization</t>
+  </si>
+  <si>
+    <t>Multilingual Features</t>
+  </si>
+  <si>
+    <t>Entertainment Facilities</t>
+  </si>
+  <si>
+    <t>Proper lighting facilities in train</t>
+  </si>
+  <si>
+    <t>Displaying city maps</t>
+  </si>
+  <si>
+    <t>Parking space efficiency in stations</t>
+  </si>
+  <si>
+    <t>City promotions</t>
+  </si>
+  <si>
+    <t>Work space provisions</t>
+  </si>
+  <si>
+    <t>Announcing information to passengers about train timings at different platforms.</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Arrays, Queues</t>
+  </si>
+  <si>
+    <t>Stations communication to provide information about train’s departing time, etc.</t>
+  </si>
+  <si>
+    <t>Linked list</t>
+  </si>
+  <si>
+    <t>Organization of required information to represent it to the suitable users.</t>
+  </si>
+  <si>
+    <t>Trees , Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information at stations should be in English, national language, home language. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trees </t>
+  </si>
+  <si>
+    <t>As journeys will be long some entertainments like T.V., etc can be installed in trains.</t>
+  </si>
+  <si>
+    <t>Queues</t>
+  </si>
+  <si>
+    <t>Bulbs that consume less power and also give illuminations should be installed.</t>
+  </si>
+  <si>
+    <t>City maps at stations help people to navigate their desired location easily.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As we know Indian families, to send one person many people come to just send him. So, we should make proper arrangements for car, bike, etc parking space. </t>
+  </si>
+  <si>
+    <t>Providing city information like what it is famous for, etc at respective stations.</t>
+  </si>
+  <si>
+    <t>Ensuring the provision of adequate facilities and workspace for individuals during their waiting period for trains, as needed.</t>
+  </si>
+  <si>
+    <t>Heaps</t>
+  </si>
+  <si>
+    <t>Sorting Algorithms</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t>Owner: Om Muddapur</t>
   </si>
 </sst>
 </file>
@@ -281,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -309,14 +438,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -637,13 +769,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -721,13 +853,13 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -802,7 +934,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E13" s="6"/>
     </row>
@@ -862,18 +994,18 @@
         <v>36</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E17" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -902,7 +1034,7 @@
       <c r="C21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E21" s="6"/>
@@ -917,7 +1049,7 @@
       <c r="C22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E22" s="6"/>
@@ -932,7 +1064,7 @@
       <c r="C23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E23" s="6"/>
@@ -947,7 +1079,7 @@
       <c r="C24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E24" s="6"/>
@@ -962,8 +1094,8 @@
       <c r="C25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>60</v>
+      <c r="D25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="E25" s="6"/>
     </row>
@@ -977,8 +1109,8 @@
       <c r="C26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>60</v>
+      <c r="D26" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="E26" s="6"/>
     </row>
@@ -992,8 +1124,8 @@
       <c r="C27" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>60</v>
+      <c r="D27" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="E27" s="6"/>
     </row>
@@ -1007,8 +1139,8 @@
       <c r="C28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>60</v>
+      <c r="D28" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="E28" s="6"/>
     </row>
@@ -1022,8 +1154,8 @@
       <c r="C29" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>60</v>
+      <c r="D29" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="E29" s="6"/>
     </row>
@@ -1037,8 +1169,8 @@
       <c r="C30" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>60</v>
+      <c r="D30" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="E30" s="6"/>
     </row>
@@ -1052,7 +1184,7 @@
       <c r="C31" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E31" s="6"/>
@@ -1067,8 +1199,8 @@
       <c r="C32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>60</v>
+      <c r="D32" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="E32" s="6"/>
     </row>
@@ -1113,45 +1245,327 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EF11AB-6EAC-461F-B215-CC2D27C21FC7}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="4" max="7" width="34.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="K4" cm="1">
+        <f t="array" aca="1" ref="K4" ca="1">K4:M4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="35">
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC21C88F-049C-4601-891A-B39CE441E3C2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA7A7D7-9F40-47C1-A51D-5DBE48F0482D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FCF125-945C-4CA3-9DC0-029193AC5F85}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/dsa-project-design-checklist.xlsx
+++ b/docs/dsa-project-design-checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07FAC44-E1C8-498F-A66A-3F809F447651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F492FD1-DEDE-4F11-A7F8-1326886A7BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,30 +26,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="94">
   <si>
     <t xml:space="preserve">SI. No. </t>
   </si>
@@ -325,6 +303,12 @@
   </si>
   <si>
     <t>Owner: Om Muddapur</t>
+  </si>
+  <si>
+    <t>Owner: Anirudh R H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem Statement: </t>
   </si>
 </sst>
 </file>
@@ -407,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -438,14 +422,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,13 +753,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -850,13 +837,13 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -996,13 +983,13 @@
       <c r="E17" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -1242,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EF11AB-6EAC-461F-B215-CC2D27C21FC7}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1254,243 +1241,525 @@
     <col min="4" max="7" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="K4" cm="1">
-        <f t="array" aca="1" ref="K4" ca="1">K4:M4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13" t="s">
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="70">
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B13:C13"/>
@@ -1501,17 +1770,17 @@
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="D11:G11"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="D12:G12"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="H3:I3"/>

--- a/docs/dsa-project-design-checklist.xlsx
+++ b/docs/dsa-project-design-checklist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07FAC44-E1C8-498F-A66A-3F809F447651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB5B2E9-242A-4108-88BF-5D4A63778AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,30 +26,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
   <si>
     <t xml:space="preserve">SI. No. </t>
   </si>
@@ -325,6 +303,21 @@
   </si>
   <si>
     <t>Owner: Om Muddapur</t>
+  </si>
+  <si>
+    <t>For things, like the recommendation engine, cautious travel is used to traverse the data.</t>
+  </si>
+  <si>
+    <t>Not all the information in a given data set is relevant to our needs.</t>
+  </si>
+  <si>
+    <t>The information shown to the user is updated only when necessary.</t>
+  </si>
+  <si>
+    <t>Whenever we wish to use a particular data set, all the information, even if it is relevant, might not be necessary at that time. So, only the necessary information is used from within the relevant data.</t>
+  </si>
+  <si>
+    <t>While calculating for a particular problem, some data might be of a higher priority than the others.</t>
   </si>
 </sst>
 </file>
@@ -407,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -442,10 +435,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,19 +749,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" customWidth="1"/>
-    <col min="5" max="5" width="50.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.453125" customWidth="1"/>
+    <col min="5" max="5" width="50.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
@@ -774,7 +770,7 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -791,7 +787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -804,11 +800,11 @@
       <c r="D4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="69.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -821,11 +817,11 @@
       <c r="D5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="67.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -838,18 +834,18 @@
       <c r="D6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
@@ -858,7 +854,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -875,7 +871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>1</v>
       </c>
@@ -885,12 +881,12 @@
       <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2</v>
       </c>
@@ -900,12 +896,12 @@
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2</v>
       </c>
@@ -915,12 +911,12 @@
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>3</v>
       </c>
@@ -930,12 +926,12 @@
       <c r="C13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="11" t="s">
         <v>58</v>
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>4</v>
       </c>
@@ -945,12 +941,12 @@
       <c r="C14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>5</v>
       </c>
@@ -960,12 +956,12 @@
       <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>6</v>
       </c>
@@ -975,12 +971,12 @@
       <c r="C16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>7</v>
       </c>
@@ -990,12 +986,12 @@
       <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="11" t="s">
         <v>58</v>
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>27</v>
       </c>
@@ -1004,7 +1000,7 @@
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>1</v>
       </c>
@@ -1034,9 +1030,11 @@
       <c r="D21" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2</v>
       </c>
@@ -1049,9 +1047,11 @@
       <c r="D22" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>3</v>
       </c>
@@ -1064,9 +1064,11 @@
       <c r="D23" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>4</v>
       </c>
@@ -1079,9 +1081,11 @@
       <c r="D24" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>5</v>
       </c>
@@ -1094,9 +1098,9 @@
       <c r="D25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>6</v>
       </c>
@@ -1109,9 +1113,9 @@
       <c r="D26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>7</v>
       </c>
@@ -1124,9 +1128,9 @@
       <c r="D27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>8</v>
       </c>
@@ -1139,9 +1143,9 @@
       <c r="D28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>9</v>
       </c>
@@ -1154,9 +1158,9 @@
       <c r="D29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>10</v>
       </c>
@@ -1169,9 +1173,9 @@
       <c r="D30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>11</v>
       </c>
@@ -1184,9 +1188,11 @@
       <c r="D31" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>12</v>
       </c>
@@ -1199,30 +1205,30 @@
       <c r="D32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1242,252 +1248,248 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EF11AB-6EAC-461F-B215-CC2D27C21FC7}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="4" max="7" width="34.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" customWidth="1"/>
+    <col min="4" max="7" width="34.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="K4" cm="1">
-        <f t="array" aca="1" ref="K4" ca="1">K4:M4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -1501,17 +1503,17 @@
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="D11:G11"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="D12:G12"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="H3:I3"/>

--- a/docs/dsa-project-design-checklist.xlsx
+++ b/docs/dsa-project-design-checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F492FD1-DEDE-4F11-A7F8-1326886A7BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9688E7A-61B2-4285-B5DE-373D9D2EE7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="120">
   <si>
     <t xml:space="preserve">SI. No. </t>
   </si>
@@ -308,7 +308,85 @@
     <t>Owner: Anirudh R H</t>
   </si>
   <si>
-    <t xml:space="preserve">Problem Statement: </t>
+    <t>Platform Assistance</t>
+  </si>
+  <si>
+    <t>Passenger Accommodation</t>
+  </si>
+  <si>
+    <t>Shop Location Generator</t>
+  </si>
+  <si>
+    <t>Toilets and Toiletries</t>
+  </si>
+  <si>
+    <t>Drinking water facilities</t>
+  </si>
+  <si>
+    <t>Rest Areas</t>
+  </si>
+  <si>
+    <t>Person-to-Person Assistance</t>
+  </si>
+  <si>
+    <t>Lounges for Long Journey trains</t>
+  </si>
+  <si>
+    <t>Dormitories for accomodations at stations</t>
+  </si>
+  <si>
+    <t>City Promotions</t>
+  </si>
+  <si>
+    <t>Helping passengers find their way around the train station, providing real-time updates and guidance through digital signs, apps, or staff.</t>
+  </si>
+  <si>
+    <t>Ensuring comfortable seating, sufficient legroom, and amenities like charging ports for a pleasant travel experience.</t>
+  </si>
+  <si>
+    <t>Simplifying shopping at the station by offering tools like apps or kiosks that guide passengers to nearby shops.</t>
+  </si>
+  <si>
+    <t>Maintaining clean and well-equipped restrooms on trains and at stations, with essential toiletries for passenger hygiene.</t>
+  </si>
+  <si>
+    <t>Providing real-time assistance to passengers through station staff or digital platforms for inquiries and guidance.</t>
+  </si>
+  <si>
+    <t>Designating comfortable spots within stations for passengers to relax, featuring seating, charging stations, and possibly recreational facilities.</t>
+  </si>
+  <si>
+    <t>Installation of water dispensers at strategic locations in stations and within train cars to provide passengers with convenient access to clean drinking water.</t>
+  </si>
+  <si>
+    <t>Establishment of exclusive lounges featuring comfortable seating, refreshments, and entertainment options for passengers on extended train journeys.</t>
+  </si>
+  <si>
+    <t>Provision of budget-friendly sleeping accommodations within or near stations for passengers requiring overnight stays or layovers.</t>
+  </si>
+  <si>
+    <t>Collaboration with local businesses and tourism boards to promote city attractions and services at train stations, enriching the passenger experience with destination-related information</t>
+  </si>
+  <si>
+    <t>linked lists</t>
+  </si>
+  <si>
+    <t>queues</t>
+  </si>
+  <si>
+    <t>graphs</t>
+  </si>
+  <si>
+    <t>trees</t>
+  </si>
+  <si>
+    <t>arrays/lists</t>
+  </si>
+  <si>
+    <t>hash map</t>
+  </si>
+  <si>
+    <t>Problem Statement: Passenger comfort and Amenities</t>
   </si>
 </sst>
 </file>
@@ -391,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -429,10 +507,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1231,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EF11AB-6EAC-461F-B215-CC2D27C21FC7}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:G24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="73" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1242,235 +1326,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
         <v>9</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="15"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="15">
         <v>10</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
@@ -1493,273 +1577,259 @@
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
+        <v>11</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>11</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
         <v>12</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" s="15"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="B20" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17">
         <v>13</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="B21" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17">
         <v>14</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="B22" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
         <v>15</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" s="15"/>
+      <c r="B23" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="17">
         <v>16</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="B24" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
         <v>17</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="I25" s="15"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="B25" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17">
         <v>18</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="I26" s="15"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="B26" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I26" s="16"/>
+    </row>
+    <row r="27" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17">
         <v>19</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I27" s="15"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="B27" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+    </row>
+    <row r="28" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17">
         <v>20</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
+      <c r="B28" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I28" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B13:C13"/>
@@ -1776,25 +1846,41 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="D11:G11"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:I28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/dsa-project-design-checklist.xlsx
+++ b/docs/dsa-project-design-checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9084F875-6E98-4825-8867-B2E924D2A7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9F4478-1D9B-48CA-B0A1-3347FCF5385C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
   <si>
     <t xml:space="preserve">SI. No. </t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t xml:space="preserve">This has many effects on railways as for instance consider if we increase no. of seats in trains then space consumption will be more and train becomes slow </t>
+  </si>
+  <si>
+    <t>testing</t>
   </si>
 </sst>
 </file>
@@ -343,12 +346,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -356,7 +353,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,13 +680,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -761,28 +764,28 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -923,28 +926,28 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1157,7 +1160,9 @@
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
